--- a/griviTripsNotes.xlsx
+++ b/griviTripsNotes.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Field</t>
   </si>
@@ -52,9 +51,6 @@
     <t>winnerCheck(char player)</t>
   </si>
   <si>
-    <t>mainGameplay(...)</t>
-  </si>
-  <si>
     <t>class Field</t>
   </si>
   <si>
@@ -79,7 +75,19 @@
     <t>↓</t>
   </si>
   <si>
-    <t>↙</t>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>inputCheck(char lower, char upper)</t>
+  </si>
+  <si>
+    <t>class Player1, class Player2, class Game</t>
+  </si>
+  <si>
+    <t>class Player1, class Player2</t>
+  </si>
+  <si>
+    <t>mainGameplay(fullToGame, columnToPutt, playerHaveChosen, player, turn)</t>
   </si>
 </sst>
 </file>
@@ -134,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -258,47 +266,147 @@
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -309,28 +417,110 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,161 +816,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A3:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="7" max="7" width="41.5703125" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" thickTop="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1"/>
+    <row r="4" spans="1:8" ht="15" customHeight="1"/>
+    <row r="5" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="23.25" customHeight="1" thickTop="1">
+      <c r="B6" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:8" ht="23.25" customHeight="1" thickTop="1">
+      <c r="B8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="24"/>
+      <c r="D10" s="49"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="61.5">
+      <c r="B14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:8" ht="35.25" customHeight="1" thickTop="1">
+      <c r="A16" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="D3" s="9" t="s">
+      <c r="B16" s="45"/>
+      <c r="D16" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="G3" s="9" t="s">
+      <c r="E16" s="45"/>
+      <c r="G16" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="23.25" customHeight="1" thickTop="1">
-      <c r="A5" s="3" t="s">
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:8" ht="24" customHeight="1" thickBot="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="48"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="48"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="1:8" ht="21.75" customHeight="1" thickTop="1">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H18" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E19" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H19" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="23"/>
+      <c r="G20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="23.25" customHeight="1"/>
-    <row r="9" spans="1:8" ht="61.5">
-      <c r="B9" s="29" t="s">
+    </row>
+    <row r="22" spans="1:8" ht="70.5" customHeight="1">
+      <c r="B22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="14" spans="1:8" ht="15.75" thickTop="1">
-      <c r="D14" s="20" t="s">
+      <c r="E22" s="30"/>
+      <c r="G22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="50"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" customHeight="1" thickBot="1"/>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
+      <c r="D24" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1">
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" ht="22.5" customHeight="1" thickTop="1">
-      <c r="D16" s="24" t="s">
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:8" ht="24" customHeight="1" thickTop="1">
+      <c r="D26" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="25" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="23.25" customHeight="1">
+      <c r="D27" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="4:5" ht="24" customHeight="1">
-      <c r="D17" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="26" t="s">
+    <row r="28" spans="1:8" ht="22.5" customHeight="1">
+      <c r="D28" s="27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" ht="21.75" customHeight="1">
-      <c r="D18" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="19" t="s">
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21.75" customHeight="1">
+      <c r="D29" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="D14:E15"/>
+  <mergeCells count="13">
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:G25"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="D16:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
